--- a/docs/odh/obf-SubjectOfRecord-extension.xlsx
+++ b/docs/odh/obf-SubjectOfRecord-extension.xlsx
@@ -223,7 +223,7 @@
     <t>Extension.valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Group|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Specimen|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Location|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Medication|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ResearchSubject)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|Group|http://hl7.org/fhir/us/core/StructureDefinition/us-core-device|Specimen|http://hl7.org/fhir/us/core/StructureDefinition/us-core-location|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Medication|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ResearchSubject)
 </t>
   </si>
   <si>

--- a/docs/odh/obf-SubjectOfRecord-extension.xlsx
+++ b/docs/odh/obf-SubjectOfRecord-extension.xlsx
@@ -223,7 +223,7 @@
     <t>Extension.valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|Group|http://hl7.org/fhir/us/core/StructureDefinition/us-core-device|Specimen|http://hl7.org/fhir/us/core/StructureDefinition/us-core-location|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Medication|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ResearchSubject)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|Group|http://hl7.org/fhir/us/core/StructureDefinition/us-core-device|Specimen|http://hl7.org/fhir/us/core/StructureDefinition/us-core-location|http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication|ResearchSubject)
 </t>
   </si>
   <si>
